--- a/1.3D model/Baize_HexapodRobot_Arduino_3DPrinter/BOM.xlsx
+++ b/1.3D model/Baize_HexapodRobot_Arduino_3DPrinter/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\代码仓库\Baize_HexapodRobot_Arduino\1.3D model\Baize_HexapodRobot_Arduino_3DPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630ABD7D-C901-4BA3-8DF3-FCB4A8575763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592514AA-FD51-45F6-B479-9038E9E44E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>3D print files</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,26 @@
   </si>
   <si>
     <t>Electronic parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2*6螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2*30螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ4*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*25销钉配销卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*7*0.5垫片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,13 +183,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,7 +473,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,27 +490,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -501,6 +521,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -509,6 +532,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -517,6 +543,9 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -524,6 +553,12 @@
       </c>
       <c r="B6">
         <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -532,6 +567,12 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
